--- a/src/R/translations.xlsx
+++ b/src/R/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/src/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4649215D-82E5-4B27-B6A2-F5C81FA3C8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54972D7C-A38D-4D84-A6AE-049D96D82829}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{4649215D-82E5-4B27-B6A2-F5C81FA3C8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC46462B-165B-4FAF-858F-A03536C628BE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{41A3C097-9B5C-484B-88DA-6A6C7D19F152}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{41A3C097-9B5C-484B-88DA-6A6C7D19F152}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1672">
   <si>
     <t>LABEL</t>
   </si>
@@ -703,9 +703,6 @@
     <t>title_figure_6c</t>
   </si>
   <si>
-    <t>Porcentaje de hospitales a nivel subnacional con personal capacitado en triaje y aislamiento</t>
-  </si>
-  <si>
     <t>title_apendix</t>
   </si>
   <si>
@@ -1336,9 +1333,6 @@
     <t>rap_pres_hospital</t>
   </si>
   <si>
-    <t>Hospitales con personal capacitado</t>
-  </si>
-  <si>
     <t>rap_title_map_total_pr</t>
   </si>
   <si>
@@ -1351,9 +1345,6 @@
     <t>rap_title_map_hospital</t>
   </si>
   <si>
-    <t>Proporción de hospitales con personal capacitado</t>
-  </si>
-  <si>
     <t>rap_legend_present</t>
   </si>
   <si>
@@ -2494,12 +2485,6 @@
     <t>rap_pres_hospital_note</t>
   </si>
   <si>
-    <t>Porcentaje de hospitales de nivel subnacional con personal capacitado para hacer triaje y aislar casos altamente sospechosos de sarampión o rubéola</t>
-  </si>
-  <si>
-    <t>Porcentagem de hospitais subnacionais (estaduais) com equipe treinada para fazer triagem e isolamento de casos altamente suspeitos de sarampo/rubéola</t>
-  </si>
-  <si>
     <t>rap_table_team</t>
   </si>
   <si>
@@ -2512,15 +2497,9 @@
     <t>rap_table_hospital</t>
   </si>
   <si>
-    <t>Porcentaje de hospitales con personal capacitado</t>
-  </si>
-  <si>
     <t>rap_table_hospital_pr</t>
   </si>
   <si>
-    <t>Porcentaje de hospitales con personal capacitado (Puntaje)</t>
-  </si>
-  <si>
     <t>qa_report_result_correct</t>
   </si>
   <si>
@@ -2775,9 +2754,6 @@
     <t>Presence of trained rapid response team at subnational level</t>
   </si>
   <si>
-    <t>Percentage of hospitals at subnational level with staff trained in triage and isolation</t>
-  </si>
-  <si>
     <t>Appendix: Global variables</t>
   </si>
   <si>
@@ -2925,15 +2901,9 @@
     <t>Presence of a trained team</t>
   </si>
   <si>
-    <t>Hospitals with trained staff</t>
-  </si>
-  <si>
     <t>Risk assessment for rapid response</t>
   </si>
   <si>
-    <t>Proportion of hospitals with trained staff</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -3629,18 +3599,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Pourcentage d'hôpitaux au niveau infranational dotés de personnel formé au triage et à l'isolement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Annexe :</t>
     </r>
     <r>
@@ -4329,34 +4287,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hôpitaux avec du personnel formé</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Évaluation du risque pour une réponse rapide</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proportion d'hôpitaux dotés de personnel formé</t>
-    </r>
-  </si>
-  <si>
     <t>Tabela</t>
   </si>
   <si>
@@ -4515,9 +4449,6 @@
     <t>Presença de equipe de resposta rápida capacitada em nível subnacional (estadual)</t>
   </si>
   <si>
-    <t>Porcentagem de hospitais subnacionais (estaduais) com pessoal capacitado em triagem e isolamento</t>
-  </si>
-  <si>
     <t>Apêndice: variáveis globais</t>
   </si>
   <si>
@@ -4641,15 +4572,9 @@
     <t>Presença de equipe capacitada</t>
   </si>
   <si>
-    <t>Hospitais com pessoal capacitado</t>
-  </si>
-  <si>
     <t>Avaliação de risco para resposta rápida</t>
   </si>
   <si>
-    <t>Proporção de hospitais com pessoal capacitado</t>
-  </si>
-  <si>
     <t>Esta herramienta evalúa el riesgo a nivel de municipio a través de la suma de puntos de indicadores en cinco categorías: inmunidad poblacional, calidad de la vigilancia, rendimiento del programa, evaluación de la amenaza y respuesta rápida.  A cada municipio del país se le asigna una categoría programática de riesgo: bajo, medio, alto o muy alto, con base a la puntación final obtenida. El puntaje para cada indicador fue realizado por consenso de expertos. El rango de puntajes posibles va de 0 a 100 puntos de riesgo, según la siguiente tabla:</t>
   </si>
   <si>
@@ -5094,18 +5019,9 @@
     <t>Presence of areas with mass events (trade/commerce, fairs, markets, sporting events, religious events).</t>
   </si>
   <si>
-    <t>Percentage of subnational hospitals with trained staff to do triage and isolation for measles/rubella highly suspected cases</t>
-  </si>
-  <si>
     <t>Presence of a trained team (Score)</t>
   </si>
   <si>
-    <t>Percentage of hospitals with trained staff</t>
-  </si>
-  <si>
-    <t>Percentage of hospitals with trained staff (Score)</t>
-  </si>
-  <si>
     <t>QA correct</t>
   </si>
   <si>
@@ -6866,46 +6782,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Pourcentage d'hôpitaux infranationaux avec du personnel qualifié pour le triage et l'isolement des cas hautement suspects de rougeole/rubéole. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Présence d'une équipe formée (indice)</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pourcentage d'hôpitaux dotés de personnel formé</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pourcentage d'hôpitaux dotés de personnel formé (indice)</t>
-    </r>
-  </si>
-  <si>
     <t>Assurance qualité correcte</t>
   </si>
   <si>
@@ -7323,12 +7203,6 @@
     <t>Presença de equipe capacitada (Pontuação)</t>
   </si>
   <si>
-    <t>Porcentagem de hospitais com pessoal capacitado</t>
-  </si>
-  <si>
-    <t>Porcentagem de hospitais com pessoal capacitado (Pontuação)</t>
-  </si>
-  <si>
     <t>Controle de qualidade correto</t>
   </si>
   <si>
@@ -7398,53 +7272,110 @@
     <t>silent_mun_infobox_text</t>
   </si>
   <si>
-    <t>Número de municipios silenciosos</t>
-  </si>
-  <si>
-    <t>Number of silent municipalities</t>
-  </si>
-  <si>
-    <t>Número de municípios silenciosos</t>
-  </si>
-  <si>
-    <t>Nombre de municipalités silencieuses</t>
-  </si>
-  <si>
     <t>title_figure_3f</t>
   </si>
   <si>
     <t>silent_mun_lab_pct</t>
   </si>
   <si>
-    <t>Porcentaje de municipios silenciosos</t>
-  </si>
-  <si>
-    <t>Percentage of silent municipalities</t>
-  </si>
-  <si>
-    <t>Percentagem de municípios silenciosos</t>
-  </si>
-  <si>
-    <t>Pourcentage des municipalités silencieuses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report suspected cases </t>
-  </si>
-  <si>
     <t>Notifica casos suspeitos</t>
   </si>
   <si>
     <t xml:space="preserve">Reports suspected cases </t>
   </si>
   <si>
-    <t>Municipios reportando casos</t>
+    <t>Equipo capacitado en los últimos 2 años</t>
+  </si>
+  <si>
+    <t>Areas subnacionales con un equipo que ha sido capacitado en respuesta a brotes en los últimos 2 años</t>
+  </si>
+  <si>
+    <t>Municipios que no reportan casos sospechosos</t>
+  </si>
+  <si>
+    <t>Número de municipios que no reportan casos sospechosos</t>
+  </si>
+  <si>
+    <t>Presencia de un equipo capacitado en los últimos 2 años (Puntaje)</t>
+  </si>
+  <si>
+    <t>Municipalities that do not report suspected cases</t>
+  </si>
+  <si>
+    <t>Number of municipalities that do not report suspected cases</t>
+  </si>
+  <si>
+    <t>Municípios que não reportam casos suspeitos</t>
+  </si>
+  <si>
+    <t>Número de municípios que não reportam casos suspeitos</t>
+  </si>
+  <si>
+    <t>Municipalités qui ne signalent pas de cas suspects</t>
+  </si>
+  <si>
+    <t>Nombre de municipalités qui ne signalent pas de cas suspects</t>
+  </si>
+  <si>
+    <t>Trained team in the last 2 years</t>
+  </si>
+  <si>
+    <t>Subnational areas with a team that has been trained in outbreak response in the last 2 years</t>
+  </si>
+  <si>
+    <t>Presence of a trained team in the last 2 years (Score)</t>
+  </si>
+  <si>
+    <t>Equipe treinada nos últimos 2 anos</t>
+  </si>
+  <si>
+    <t>Áreas subnacionais com uma equipe que foi treinada para resposta a surtos nos últimos 2 anos</t>
+  </si>
+  <si>
+    <t>Presença de uma equipe treinada nos últimos 2 anos (Pontuação)</t>
+  </si>
+  <si>
+    <t>Équipe formée au cours des 2 dernières années</t>
+  </si>
+  <si>
+    <t>Zones infranationales avec une équipe formée pour répondre aux épidémies au cours des 2 dernières années</t>
+  </si>
+  <si>
+    <t>Présence d'une équipe formée au cours des 2 dernières années (Score)</t>
+  </si>
+  <si>
+    <t>Porcentaje de municipios que no reportan casos sospechosos</t>
+  </si>
+  <si>
+    <t>Percentage of municipalities that do not report suspected cases</t>
+  </si>
+  <si>
+    <t>Proporção de municípios que não reportam casos suspeitos</t>
+  </si>
+  <si>
+    <t>Proportion de municipalités qui ne signalent pas de cas suspects</t>
+  </si>
+  <si>
+    <t>Presencia de un equipo capacitado en los últimos 2 años</t>
+  </si>
+  <si>
+    <t>Presence of a trained team in the last 2 years</t>
+  </si>
+  <si>
+    <t>Presença de uma equipe treinada nos últimos 2 anos</t>
+  </si>
+  <si>
+    <t>Présence d'une équipe formée au cours des 2 dernières années</t>
+  </si>
+  <si>
+    <t>Áreas subnacionais (estadual) com uma equipe que foi treinada para resposta a surtos nos últimos 2 anos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7542,6 +7473,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7569,7 +7506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7624,6 +7561,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7991,8 +7929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064C7D9D-C4E2-B94C-B003-B8DCE10597B7}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:E56"/>
+    <sheetView tabSelected="1" topLeftCell="D71" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8095,13 +8033,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -8112,13 +8050,13 @@
         <v>28</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -8129,13 +8067,13 @@
         <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -8146,13 +8084,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -8163,13 +8101,13 @@
         <v>34</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -8180,13 +8118,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
@@ -8197,13 +8135,13 @@
         <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
@@ -8211,16 +8149,16 @@
         <v>39</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -8302,10 +8240,10 @@
         <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -8316,13 +8254,13 @@
         <v>63</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -8333,13 +8271,13 @@
         <v>65</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -8350,13 +8288,13 @@
         <v>67</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -8367,13 +8305,13 @@
         <v>69</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -8384,13 +8322,13 @@
         <v>71</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -8418,13 +8356,13 @@
         <v>78</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -8435,13 +8373,13 @@
         <v>80</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
@@ -8452,13 +8390,13 @@
         <v>82</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
@@ -8469,13 +8407,13 @@
         <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="93" x14ac:dyDescent="0.35">
@@ -8483,16 +8421,16 @@
         <v>85</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -8503,13 +8441,13 @@
         <v>87</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="93" x14ac:dyDescent="0.35">
@@ -8520,13 +8458,13 @@
         <v>89</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="220" customHeight="1" x14ac:dyDescent="0.35">
@@ -8537,13 +8475,13 @@
         <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -8554,13 +8492,13 @@
         <v>93</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -8571,7 +8509,7 @@
         <v>95</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>95</v>
@@ -8591,10 +8529,10 @@
         <v>96</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -8605,13 +8543,13 @@
         <v>99</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -8622,7 +8560,7 @@
         <v>101</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>101</v>
@@ -8639,13 +8577,13 @@
         <v>103</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -8656,13 +8594,13 @@
         <v>105</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -8673,13 +8611,13 @@
         <v>107</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -8690,13 +8628,13 @@
         <v>109</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -8707,13 +8645,13 @@
         <v>111</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -8724,13 +8662,13 @@
         <v>113</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -8741,13 +8679,13 @@
         <v>115</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -8758,13 +8696,13 @@
         <v>117</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -8792,13 +8730,13 @@
         <v>124</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8809,13 +8747,13 @@
         <v>126</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -8894,13 +8832,13 @@
         <v>148</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -8911,13 +8849,13 @@
         <v>150</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="31" x14ac:dyDescent="0.35">
@@ -8928,13 +8866,13 @@
         <v>152</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
@@ -8945,13 +8883,13 @@
         <v>154</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -8962,13 +8900,13 @@
         <v>156</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -8979,13 +8917,13 @@
         <v>158</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="31" x14ac:dyDescent="0.35">
@@ -8996,30 +8934,30 @@
         <v>160</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1667</v>
+        <v>1639</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1655</v>
+        <v>1631</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>1656</v>
+        <v>1632</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1657</v>
+        <v>1633</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1658</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -9047,13 +8985,13 @@
         <v>167</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -9064,13 +9002,13 @@
         <v>169</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -9166,13 +9104,13 @@
         <v>196</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -9183,13 +9121,13 @@
         <v>198</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -9200,13 +9138,13 @@
         <v>200</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -9217,13 +9155,13 @@
         <v>202</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -9234,13 +9172,13 @@
         <v>204</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -9251,13 +9189,13 @@
         <v>206</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -9268,13 +9206,13 @@
         <v>208</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="31" x14ac:dyDescent="0.35">
@@ -9285,562 +9223,562 @@
         <v>210</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>211</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>892</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>997</v>
+      <c r="B77" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="C78" s="15" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="C79" s="15" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>216</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="C80" s="15" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="C81" s="15" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="C83" s="15" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="C84" s="15" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="C89" s="15" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="C90" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="C91" s="15" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>251</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="C92" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="C95" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="C96" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>259</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="C97" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="C98" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="C99" s="15" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="C100" s="15" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>274</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>279</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>284</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>289</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>41</v>
@@ -9857,7 +9795,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>46</v>
@@ -9874,7 +9812,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>51</v>
@@ -9891,7 +9829,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>56</v>
@@ -9908,75 +9846,75 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>302</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="E113" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>313</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="C116" s="3" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D116" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>128</v>
@@ -9993,381 +9931,381 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>316</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="C118" s="15" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>318</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="C119" s="15" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D119" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>320</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="C120" s="15" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D120" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>322</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="C121" s="15" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>324</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="C122" s="15" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D122" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>326</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="C123" s="15" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D123" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>328</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="C124" s="15" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="D124" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>330</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="C125" s="15" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="C126" s="15" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="D126" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>334</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="C127" s="15" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D127" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D128" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>337</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="C129" s="15" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D129" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>339</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="C130" s="15" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="D130" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>341</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="C131" s="15" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="D131" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>343</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="C132" s="15" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>345</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="C133" s="15" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="D133" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>347</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="C134" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D134" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>349</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="C135" s="15" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="D135" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>351</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="C136" s="15" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D136" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>353</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="E137" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>358</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="E138" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>363</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="C139" s="3" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>171</v>
@@ -10384,7 +10322,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>176</v>
@@ -10401,7 +10339,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>181</v>
@@ -10418,7 +10356,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>186</v>
@@ -10435,529 +10373,529 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>369</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="C144" s="15" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>371</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="C145" s="15" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>373</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="C146" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>378</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="C147" s="15" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="D147" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="E148" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>381</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="C149" s="15" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="D149" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>383</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="C150" s="15" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="D150" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>385</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="C151" s="15" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="D151" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>387</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="C152" s="15" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>389</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="C153" s="15" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="D153" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>391</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="C154" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="D154" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>393</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="C155" s="15" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="D155" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>395</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="C156" s="15" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="D156" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>397</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="C157" s="15" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="D157" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>399</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="C158" s="15" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D158" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>401</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="C159" s="15" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D159" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
+        <v>403</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="C160" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="E160" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>408</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="C161" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D161" s="3" t="s">
+      <c r="E161" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>412</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="C162" s="15" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="D162" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>414</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="C163" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="E163" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>419</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="C164" s="15" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D164" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>422</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>942</v>
+        <v>421</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1655</v>
       </c>
       <c r="D165" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>1051</v>
+        <v>1658</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="D166" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D167" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>427</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>944</v>
+        <v>425</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1668</v>
       </c>
       <c r="D168" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>1053</v>
+        <v>1669</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D169" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D170" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
-        <v>1654</v>
+        <v>1630</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>1676</v>
+        <v>1645</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
-        <v>1659</v>
+        <v>1635</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>1660</v>
+        <v>1636</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>1675</v>
+        <v>1642</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>1674</v>
+        <v>1641</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>1661</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
-        <v>1662</v>
+        <v>1638</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>1663</v>
+        <v>1646</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>1665</v>
+        <v>1651</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
-        <v>1668</v>
+        <v>1640</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>1670</v>
+        <v>1663</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>1664</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
@@ -10972,7 +10910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F5FF65-00C6-6F47-9553-2E4604D763C3}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A66" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11000,659 +10940,659 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1513</v>
+        <v>1491</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1309</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1514</v>
+        <v>1492</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1310</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1515</v>
+        <v>1493</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1516</v>
+        <v>1494</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1311</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1517</v>
+        <v>1495</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1312</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1518</v>
+        <v>1496</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1313</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1519</v>
+        <v>1497</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1314</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1315</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1521</v>
+        <v>1499</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1316</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1522</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1317</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1156</v>
+        <v>1140</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1523</v>
+        <v>1501</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1318</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1157</v>
+        <v>1141</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1524</v>
+        <v>1502</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1319</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1158</v>
+        <v>1142</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1525</v>
+        <v>1503</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1320</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1526</v>
+        <v>1504</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1321</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1527</v>
+        <v>1505</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1322</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1528</v>
+        <v>1506</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1323</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1529</v>
+        <v>1507</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1324</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1325</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1530</v>
+        <v>1508</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1326</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1531</v>
+        <v>1509</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1327</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1532</v>
+        <v>1510</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1328</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1167</v>
+        <v>1151</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1533</v>
+        <v>1511</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1329</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1168</v>
+        <v>1152</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1330</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1535</v>
+        <v>1513</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1331</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1332</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1170</v>
+        <v>1154</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1537</v>
+        <v>1515</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1333</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1538</v>
+        <v>1516</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1334</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1539</v>
+        <v>1517</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1335</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1540</v>
+        <v>1518</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1336</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1541</v>
+        <v>1519</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1337</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1542</v>
+        <v>1520</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1338</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1543</v>
+        <v>1521</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1339</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1544</v>
+        <v>1522</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1340</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1545</v>
+        <v>1523</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1341</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1546</v>
+        <v>1524</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1342</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>121</v>
@@ -11663,98 +11603,98 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1547</v>
+        <v>1525</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>1343</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1548</v>
+        <v>1526</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1344</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1549</v>
+        <v>1527</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1345</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>164</v>
@@ -11765,461 +11705,461 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1550</v>
+        <v>1528</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1346</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1551</v>
+        <v>1529</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1552</v>
+        <v>1530</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>1348</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>1189</v>
+        <v>1173</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1553</v>
+        <v>1531</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>1349</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1554</v>
+        <v>1532</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>1350</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1555</v>
+        <v>1533</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1351</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1515</v>
+        <v>1493</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1556</v>
+        <v>1534</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1352</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1557</v>
+        <v>1535</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1353</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1354</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1559</v>
+        <v>1537</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1356</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1561</v>
+        <v>1539</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1562</v>
+        <v>1540</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1563</v>
+        <v>1541</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1564</v>
+        <v>1542</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1360</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1565</v>
+        <v>1543</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1361</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1566</v>
+        <v>1544</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>1362</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1567</v>
+        <v>1545</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1363</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1568</v>
+        <v>1546</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1364</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1569</v>
+        <v>1547</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>1365</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1570</v>
+        <v>1548</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>1366</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1571</v>
+        <v>1549</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>1367</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1572</v>
+        <v>1550</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>1368</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1573</v>
+        <v>1551</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>1369</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -12233,8 +12173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01EA010-864B-8746-BF5D-2E469295667F}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView topLeftCell="C182" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12263,87 +12203,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>573</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>1370</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>577</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>1371</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1574</v>
+        <v>1552</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1372</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>1374</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -12360,7 +12300,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1375</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -12377,619 +12317,619 @@
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1376</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1575</v>
+        <v>1553</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1377</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1576</v>
+        <v>1554</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1378</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1577</v>
+        <v>1555</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1379</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1578</v>
+        <v>1556</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1380</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1381</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1579</v>
+        <v>1557</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1382</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1383</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1384</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1385</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1386</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1388</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1389</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1390</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1391</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1392</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1388</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1389</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1390</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1391</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1392</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>622</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>628</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>1393</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1374</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1581</v>
+        <v>1559</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1394</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>1395</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1582</v>
+        <v>1560</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1396</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>1395</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>1397</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1583</v>
+        <v>1561</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1398</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1399</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1400</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1584</v>
+        <v>1562</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1401</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1229</v>
+        <v>1213</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1585</v>
+        <v>1563</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1402</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>1403</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>645</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>651</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>1404</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -13000,18 +12940,18 @@
         <v>26</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>41</v>
@@ -13023,12 +12963,12 @@
         <v>43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1405</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>46</v>
@@ -13040,12 +12980,12 @@
         <v>48</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1406</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>51</v>
@@ -13057,12 +12997,12 @@
         <v>53</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>1407</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>56</v>
@@ -13074,24 +13014,24 @@
         <v>58</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>1408</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>1230</v>
+        <v>1214</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1586</v>
+        <v>1564</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>1409</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -13105,10 +13045,10 @@
         <v>96</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>1410</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -13122,491 +13062,491 @@
         <v>60</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="D54" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="E54" s="3" t="s">
-        <v>1411</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1412</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="D56" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>1413</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="D57" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="E57" s="3" t="s">
-        <v>1414</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>292</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1415</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="C59" s="13" t="s">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1416</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1587</v>
+        <v>1565</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1417</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>1233</v>
+        <v>1217</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1588</v>
+        <v>1566</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>1418</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>1234</v>
+        <v>1218</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1419</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="D63" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="E63" s="3" t="s">
-        <v>1395</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>1235</v>
+        <v>1219</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1420</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="D65" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="E65" s="3" t="s">
-        <v>1397</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>1236</v>
+        <v>1220</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1590</v>
+        <v>1568</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1421</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1591</v>
+        <v>1569</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1422</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>1374</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>666</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>1423</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>1238</v>
+        <v>1222</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1592</v>
+        <v>1570</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>1424</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1593</v>
+        <v>1571</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>1425</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>1240</v>
+        <v>1224</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>1426</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>1427</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>1242</v>
+        <v>1226</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1594</v>
+        <v>1572</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>1428</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>1243</v>
+        <v>1227</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>1429</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1595</v>
+        <v>1573</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>1430</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>1245</v>
+        <v>1229</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1596</v>
+        <v>1574</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>1431</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>1246</v>
+        <v>1230</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1597</v>
+        <v>1575</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1432</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1598</v>
+        <v>1576</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>1433</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1599</v>
+        <v>1577</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1434</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>133</v>
@@ -13618,148 +13558,148 @@
         <v>135</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>1435</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>140</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1600</v>
+        <v>1578</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>1437</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1601</v>
+        <v>1579</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>1438</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>698</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>704</v>
-      </c>
       <c r="E85" s="3" t="s">
-        <v>1439</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>1602</v>
+        <v>1580</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>1440</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1603</v>
+        <v>1581</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>1441</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>1442</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>313</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="C89" s="15" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>128</v>
@@ -13771,63 +13711,63 @@
         <v>130</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>1443</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>316</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="C91" s="15" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>1444</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>322</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="C93" s="15" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>128</v>
@@ -13839,607 +13779,607 @@
         <v>130</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>1443</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>710</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>716</v>
-      </c>
       <c r="E95" s="3" t="s">
-        <v>1445</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1605</v>
+        <v>1583</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>1446</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>347</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="C97" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>1447</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>1381</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>318</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="C100" s="15" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>320</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="C101" s="15" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>1448</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>1449</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>326</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="C104" s="13" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>328</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="C105" s="13" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>1450</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1451</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>332</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="C107" s="15" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>334</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="C108" s="15" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>337</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="C110" s="15" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>339</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="C111" s="15" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>341</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="C112" s="15" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>343</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="C113" s="15" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>345</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="C114" s="15" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1607</v>
+        <v>1585</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>1452</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>1608</v>
+        <v>1586</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>1453</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1609</v>
+        <v>1587</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>1454</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1610</v>
+        <v>1588</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>1455</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>736</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>742</v>
-      </c>
       <c r="E119" s="3" t="s">
-        <v>1456</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>1265</v>
+        <v>1249</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1611</v>
+        <v>1589</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>1457</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>1266</v>
+        <v>1250</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>1458</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1612</v>
+        <v>1590</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>1459</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>1268</v>
+        <v>1252</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>1613</v>
+        <v>1591</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>1460</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>1269</v>
+        <v>1253</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>1614</v>
+        <v>1592</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>1461</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>349</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="C125" s="15" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="C126" s="15" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>1462</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>353</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="C127" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="D127" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="E127" s="3" t="s">
-        <v>1463</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>358</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="C128" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="D128" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="E128" s="3" t="s">
-        <v>1464</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>171</v>
@@ -14451,29 +14391,29 @@
         <v>173</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>1465</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>1270</v>
+        <v>1254</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>1466</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>181</v>
@@ -14485,12 +14425,12 @@
         <v>183</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>1467</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>186</v>
@@ -14502,46 +14442,46 @@
         <v>188</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>1468</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>369</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="C134" s="15" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>1615</v>
+        <v>1593</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>371</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="C135" s="15" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>1616</v>
+        <v>1594</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>171</v>
@@ -14553,1061 +14493,1061 @@
         <v>173</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>1465</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>1617</v>
+        <v>1595</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>1469</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>1270</v>
+        <v>1254</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>1466</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>1272</v>
+        <v>1256</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1618</v>
+        <v>1596</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>1470</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1619</v>
+        <v>1597</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>1471</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1620</v>
+        <v>1598</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>1472</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>1621</v>
+        <v>1599</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>1473</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>1622</v>
+        <v>1600</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>1474</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1623</v>
+        <v>1601</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>1475</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>373</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="C145" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="D145" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="E145" s="3" t="s">
-        <v>1476</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>1624</v>
+        <v>1602</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>1477</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C147" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="D147" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="E147" s="3" t="s">
-        <v>1395</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>1625</v>
+        <v>1603</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>1478</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>1479</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>1280</v>
+        <v>1264</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>1626</v>
+        <v>1604</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>1480</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>1627</v>
+        <v>1605</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>1481</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>1282</v>
+        <v>1266</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>1628</v>
+        <v>1606</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1482</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>1629</v>
+        <v>1607</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>1483</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>1630</v>
+        <v>1608</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>1484</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>378</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="C156" s="15" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C157" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="D157" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="E157" s="3" t="s">
-        <v>1476</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C158" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="D158" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="E158" s="3" t="s">
-        <v>1476</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>1631</v>
+        <v>1609</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>1485</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>1632</v>
+        <v>1610</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>1486</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>1633</v>
+        <v>1611</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>1487</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>383</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="C162" s="15" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>385</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="C163" s="15" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>387</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="C164" s="15" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>389</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="C165" s="15" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>391</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="C166" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>393</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="C167" s="15" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>395</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="C168" s="15" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>397</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="C169" s="15" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>1634</v>
+        <v>1612</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>1488</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>1635</v>
+        <v>1613</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>1489</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>1636</v>
+        <v>1614</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>1490</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>1491</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>1637</v>
+        <v>1615</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>1492</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>1638</v>
+        <v>1616</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1493</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>1639</v>
+        <v>1617</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>1494</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>399</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="C178" s="15" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>401</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="C179" s="15" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>403</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="C180" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="D180" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="E180" s="3" t="s">
-        <v>1495</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>408</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="C181" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C181" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="E181" s="3" t="s">
-        <v>1496</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>412</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="C182" s="15" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>414</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="C183" s="13" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>1497</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>419</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="C184" s="15" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>423</v>
+        <v>1643</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>942</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+        <v>1654</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="16" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>808</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>1498</v>
+        <v>805</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>428</v>
+        <v>1643</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>944</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>1053</v>
+        <v>1654</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>1640</v>
+        <v>1618</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1499</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>815</v>
+        <v>1643</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>1500</v>
+        <v>1654</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>817</v>
+        <v>1647</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>1501</v>
+        <v>1656</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
-        <v>1654</v>
+        <v>1630</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
-        <v>1659</v>
+        <v>1635</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>1660</v>
+        <v>1636</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>1673</v>
+        <v>1642</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>1674</v>
+        <v>1641</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
-        <v>1662</v>
+        <v>1638</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>1663</v>
+        <v>1646</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>1665</v>
+        <v>1651</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
     </row>
   </sheetData>
@@ -15651,189 +15591,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1298</v>
+        <v>1279</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1643</v>
+        <v>1619</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1502</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1299</v>
+        <v>1280</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1644</v>
+        <v>1620</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1503</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1300</v>
+        <v>1281</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1645</v>
+        <v>1621</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1504</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1301</v>
+        <v>1282</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1646</v>
+        <v>1622</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1505</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1302</v>
+        <v>1283</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1647</v>
+        <v>1623</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1506</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1303</v>
+        <v>1284</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1648</v>
+        <v>1624</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1507</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1304</v>
+        <v>1285</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1649</v>
+        <v>1625</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1508</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1305</v>
+        <v>1286</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1650</v>
+        <v>1626</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1509</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1306</v>
+        <v>1287</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1651</v>
+        <v>1627</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1510</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1307</v>
+        <v>1288</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1652</v>
+        <v>1628</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1511</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1308</v>
+        <v>1289</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1653</v>
+        <v>1629</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1512</v>
+        <v>1490</v>
       </c>
     </row>
   </sheetData>
